--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3206.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3206.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9456090448071348</v>
+        <v>1.480879068374634</v>
       </c>
       <c r="B1">
-        <v>1.939354231590027</v>
+        <v>1.999357223510742</v>
       </c>
       <c r="C1">
-        <v>6.21619351089996</v>
+        <v>2.301314830780029</v>
       </c>
       <c r="D1">
-        <v>3.657121862944789</v>
+        <v>2.761540412902832</v>
       </c>
       <c r="E1">
-        <v>1.652910155596722</v>
+        <v>2.750622510910034</v>
       </c>
     </row>
   </sheetData>
